--- a/bme/excel/szakirany-villany.xlsx
+++ b/bme/excel/szakirany-villany.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogna\programming\martonbognar.github.io\bme\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="23820" windowHeight="10620"/>
+    <workbookView xWindow="120" yWindow="465" windowWidth="23820" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="szakirany" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -34,9 +39,6 @@
     <t>Féléves átlag</t>
   </si>
   <si>
-    <t>Kummulált átlag</t>
-  </si>
-  <si>
     <t>Matematika A1</t>
   </si>
   <si>
@@ -113,13 +115,16 @@
   </si>
   <si>
     <t>Köt vál gazd és hum 3, 4</t>
+  </si>
+  <si>
+    <t>Kumulált átlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -466,11 +471,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,9 +557,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,6 +609,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,14 +802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
@@ -769,7 +818,7 @@
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,15 +838,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="b">
         <f>IF(E2&gt;1,TRUE,FALSE)</f>
@@ -812,12 +861,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="b">
         <f t="shared" ref="C3:C27" si="0">IF(E3&gt;1,TRUE,FALSE)</f>
@@ -832,12 +881,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="b">
         <f t="shared" si="0"/>
@@ -852,12 +901,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="b">
         <f t="shared" si="0"/>
@@ -872,12 +921,12 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="b">
         <f t="shared" si="0"/>
@@ -892,12 +941,12 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8" t="b">
         <f t="shared" si="0"/>
@@ -912,12 +961,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="14" t="b">
         <f t="shared" si="0"/>
@@ -938,12 +987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="b">
         <f t="shared" si="0"/>
@@ -958,12 +1007,12 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8" t="b">
         <f t="shared" si="0"/>
@@ -978,12 +1027,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8" t="b">
         <f t="shared" si="0"/>
@@ -998,12 +1047,12 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1018,12 +1067,12 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1038,12 +1087,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>2</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="14" t="b">
         <f t="shared" si="0"/>
@@ -1064,12 +1113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="b">
         <f t="shared" si="0"/>
@@ -1084,12 +1133,12 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1104,12 +1153,12 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1124,12 +1173,12 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1144,12 +1193,12 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1164,12 +1213,12 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14" t="b">
         <f t="shared" si="0"/>
@@ -1190,12 +1239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="b">
         <f t="shared" si="0"/>
@@ -1210,12 +1259,12 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1230,12 +1279,12 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1250,12 +1299,12 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>4</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1270,12 +1319,12 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1290,12 +1339,12 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1310,12 +1359,12 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="14" t="b">
         <f t="shared" si="0"/>
